--- a/test-data/Anamoly_Detection.xlsx
+++ b/test-data/Anamoly_Detection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034514\PowerBI_BY\PowerBI_UIAutomation\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_BY_main2\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F672DB-6FB0-426D-A0DF-97ADC4D52877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9568EE4-94F4-4A78-81EB-77FF23CB600E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="129">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -304,23 +304,136 @@
   </si>
   <si>
     <t>verifyUnderstand_Anamoly</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC21</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC22</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC23</t>
+  </si>
+  <si>
+    <t>Validate_DateFormat_Anamoly</t>
+  </si>
+  <si>
+    <t>goto_UnderstandPage_Anamoly</t>
+  </si>
+  <si>
+    <t>goto_InvestigatePage_Anamoly</t>
+  </si>
+  <si>
+    <t>Validate_OutlierInvestigationReport_Anamoly</t>
+  </si>
+  <si>
+    <t>Validate_OutlierTableHasData_Anamoly</t>
+  </si>
+  <si>
+    <t>Validate_BusinessImpactShowsOptions_Anamoly</t>
+  </si>
+  <si>
+    <t>Validate_BusinessImpactDrillThroughShowsOtions_Anamoly</t>
+  </si>
+  <si>
+    <t>goto_PricePromotionsPLC_InventoryPage_Anamoly</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC41</t>
+  </si>
+  <si>
+    <t>TC_Investigation page_41,42,43,44,45,47,48</t>
+  </si>
+  <si>
+    <t>TC_53_Price , promotion, PLC and Inventory 54</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC54</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC55</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC56</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC57</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC58</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC59</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC60</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC61</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC62</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC63</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC64</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC65</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC66</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC67</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC68</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC69</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC70</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC71</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC72</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC73</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC74</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC75</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC76</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>AnamolyDetection_TC_Investigation page_41,42,43,44,45,47,48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,7 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,74 +548,74 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,275 +971,323 @@
       <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="25"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
       </c>
       <c r="D5" s="25"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="25">
         <v>1</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" t="s">
+      <c r="E6" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="25">
         <v>1</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="25">
         <v>1</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="25">
         <v>1</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="25">
         <v>1</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
       </c>
       <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="25">
-        <v>1</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1134,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D56"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1336,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1184,10 +1345,12 @@
       <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1196,10 +1359,12 @@
       <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1208,7 +1373,9 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1216,7 +1383,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1231,7 +1398,7 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1246,7 +1413,7 @@
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1266,7 +1433,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1281,7 +1448,7 @@
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1296,7 +1463,7 @@
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1316,7 +1483,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1331,7 +1498,7 @@
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1346,7 +1513,7 @@
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1366,7 +1533,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1381,7 +1548,7 @@
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1396,7 +1563,7 @@
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1415,7 +1582,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1430,7 +1597,7 @@
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1445,7 +1612,7 @@
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1464,7 +1631,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1479,7 +1646,7 @@
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1494,7 +1661,7 @@
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1513,7 +1680,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1528,7 +1695,7 @@
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -1543,7 +1710,7 @@
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1563,7 +1730,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1578,7 +1745,7 @@
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -1593,7 +1760,7 @@
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -1613,7 +1780,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1628,7 +1795,7 @@
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1643,7 +1810,7 @@
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -1663,7 +1830,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1678,7 +1845,7 @@
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -1698,7 +1865,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -1713,7 +1880,7 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -1733,7 +1900,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -1748,7 +1915,7 @@
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -1768,7 +1935,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1783,7 +1950,7 @@
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -1803,7 +1970,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -1812,11 +1979,13 @@
       <c r="C55" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -1825,7 +1994,9 @@
       <c r="C56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1834,7 +2005,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -1843,106 +2014,197 @@
       <c r="C58" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E59" s="13"/>
     </row>
-    <row r="60" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="E63" s="13"/>
+    <row r="60" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="64" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A64" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="D78" s="5"/>
+      <c r="D74" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A278C6-D29D-4229-9A92-F9747B79F478}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,51 +2219,51 @@
     <col min="8" max="8" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="53.28515625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="24" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.42578125" style="24" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.42578125" style="23" hidden="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="25.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="14">
@@ -2013,16 +2275,16 @@
       <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="E2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="14">
@@ -2034,14 +2296,14 @@
       <c r="D3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -2052,7 +2314,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="14">
@@ -2064,14 +2326,14 @@
       <c r="D4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23" t="s">
+      <c r="E4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="24"/>
       <c r="J4" s="15" t="s">
         <v>20</v>
       </c>
@@ -2080,7 +2342,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="14">
@@ -2092,20 +2354,20 @@
       <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="26" t="s">
+      <c r="E5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="K5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="14">
@@ -2117,20 +2379,20 @@
       <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="26" t="s">
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="K6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="14">
@@ -2142,20 +2404,20 @@
       <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="26" t="s">
+      <c r="E7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="27"/>
+      <c r="H7" s="24"/>
       <c r="K7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="14">
@@ -2167,20 +2429,20 @@
       <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="26" t="s">
+      <c r="E8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="27"/>
+      <c r="H8" s="24"/>
       <c r="K8" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="14">
@@ -2192,20 +2454,20 @@
       <c r="D9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="26" t="s">
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="27"/>
+      <c r="H9" s="24"/>
       <c r="K9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="14">
@@ -2217,20 +2479,20 @@
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="26" t="s">
+      <c r="E10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="24"/>
       <c r="K10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="14">
@@ -2242,20 +2504,20 @@
       <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="26" t="s">
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="27"/>
+      <c r="H11" s="24"/>
       <c r="K11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="14">
@@ -2267,13 +2529,13 @@
       <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="14">
@@ -2285,13 +2547,13 @@
       <c r="D13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="22"/>
+      <c r="E13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="14">
@@ -2303,13 +2565,13 @@
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="14">
@@ -2321,13 +2583,13 @@
       <c r="D15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="22"/>
+      <c r="E15" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="14">
@@ -2339,13 +2601,13 @@
       <c r="D16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="22"/>
+      <c r="E16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="14">
@@ -2357,13 +2619,571 @@
       <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="22"/>
+      <c r="E17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="14">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="14">
+        <v>1</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14">
+        <v>1</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14">
+        <v>1</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{DE4CDC22-73BE-4CFC-9F4B-A83AE1A8489D}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{CE35F3DC-BCC4-48BA-87FB-DE860CAE720D}"/>
@@ -2380,9 +3200,8 @@
     <hyperlink ref="E14" r:id="rId13" xr:uid="{2487E887-7984-4454-B95C-39DF5395D004}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{A5BACE71-E113-43E0-9031-20B6CC1E09E8}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{6CF2B8E6-60BA-4271-9BAD-2A9D63CD5AD6}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{E8303979-2D36-4093-AF87-39B23D5A37AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>